--- a/biology/Zoologie/Galacticidae/Galacticidae.xlsx
+++ b/biology/Zoologie/Galacticidae/Galacticidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Galacticidae sont une famille de lépidoptères, qui est la seule représentante de la super-famille des Galacticoidea[1]. Selon Erik J. van Nieukerken (d) cette famille est représentée par une vingtaine d'espèces[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Galacticidae sont une famille de lépidoptères, qui est la seule représentante de la super-famille des Galacticoidea. Selon Erik J. van Nieukerken (d) cette famille est représentée par une vingtaine d'espèces. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (26 mars 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (26 mars 2023) :
 Galactica Walsingham, 1911
 Homadaula Lower, 1907
 Tanaoctena Turner, 1913</t>
@@ -544,9 +558,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super-famille des Galacticoidea et la famille des Galacticidae ont été créées en 1986 par l'entomologiste français Joël Minet (d) (1953-)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-famille des Galacticoidea et la famille des Galacticidae ont été créées en 1986 par l'entomologiste français Joël Minet (d) (1953-).
 </t>
         </is>
       </c>
